--- a/inputs/stage_storage.xlsx
+++ b/inputs/stage_storage.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabu-aly\Documents\Balance_TA\POND_IT_Guidebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B1119-C996-4F8A-A5A5-6873635F87C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA28386-30E4-4486-83DF-EB911837ECB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BCA0FA2-6D35-4200-8AF0-C475587653BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" xr2:uid="{0BCA0FA2-6D35-4200-8AF0-C475587653BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eagle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,19 +48,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +79,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,94 +395,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E35BF-A752-499D-9AAD-825D48AAD063}">
-  <dimension ref="A1:C7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>803</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4100</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>804</v>
+      <c r="B2">
+        <v>32.9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
       </c>
       <c r="B3" s="2">
-        <v>12000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8050.0186800000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>805</v>
+        <v>232</v>
+      </c>
+      <c r="C3" s="1">
+        <v>58.710982872808486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>18500</v>
-      </c>
-      <c r="C4" s="2">
-        <v>23299.982639999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>806</v>
+        <v>1302.21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>406.02061862513926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
       </c>
       <c r="B5" s="2">
-        <v>23000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44050.006440000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>807</v>
+        <v>3234.82</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1504.2617613489369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>28000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>69549.986879999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>807.8</v>
+        <v>5653.04</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3698.2850209109824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
       </c>
       <c r="B7" s="2">
-        <v>37500</v>
-      </c>
-      <c r="C7" s="2">
-        <v>102300.00660000001</v>
+        <v>9109.17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7354.6478541480565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15508.24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13438.480801248246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21444.13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22636.583680215015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27044.38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34731.670329058208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33000.639999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>49718.246111718268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>38463.86</v>
+      </c>
+      <c r="C12" s="1">
+        <v>67566.943748342295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43719.15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>88098.679581848308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>48191.360000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>111067.23461792537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>52552.45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>136245.31731081079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>57260.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>163690.066578995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>62311.79</v>
+      </c>
+      <c r="C17" s="1">
+        <v>193574.16777926881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>67524.429999999993</v>
+      </c>
+      <c r="C18" s="1">
+        <v>226024.49942581292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>73837.460000000006</v>
+      </c>
+      <c r="C19" s="1">
+        <v>261353.21892348261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>79069.38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>299572.46768014529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <v>86274.03</v>
+      </c>
+      <c r="C21" s="1">
+        <v>340895.23336592526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>93800.12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>385900.65895538626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23">
+        <v>101646.35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>434749.14665621263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>110592.02</v>
+      </c>
+      <c r="C24" s="1">
+        <v>487793.02165079926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25">
+        <v>120167.13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>545466.24746928515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11.737</v>
+      </c>
+      <c r="B26">
+        <v>125021</v>
+      </c>
+      <c r="C26" s="1">
+        <v>606759.27583941945</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/stage_storage.xlsx
+++ b/inputs/stage_storage.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA28386-30E4-4486-83DF-EB911837ECB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B20CA8-05E1-4DB6-BC91-50A3CE427A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" xr2:uid="{0BCA0FA2-6D35-4200-8AF0-C475587653BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{0BCA0FA2-6D35-4200-8AF0-C475587653BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="1" r:id="rId1"/>
+    <sheet name="CHB-03" sheetId="2" r:id="rId2"/>
+    <sheet name="Eagle_lesscapacity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>elev</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>area_sqft</t>
   </si>
   <si>
     <t>storage_cuft</t>
+  </si>
+  <si>
+    <t>elev_ft</t>
   </si>
 </sst>
 </file>
@@ -77,10 +79,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,8 +406,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,13 +419,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,6 +701,417 @@
       </c>
       <c r="C26" s="1">
         <v>606759.27583941945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E28A86E-DB69-4A18-A6CC-E8CEBF4AC3FD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>803</v>
+      </c>
+      <c r="B2">
+        <v>4100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>804</v>
+      </c>
+      <c r="B3">
+        <v>12000</v>
+      </c>
+      <c r="C3">
+        <v>8049.9999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>805</v>
+      </c>
+      <c r="B4">
+        <v>18500</v>
+      </c>
+      <c r="C4">
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>806</v>
+      </c>
+      <c r="B5">
+        <v>23000</v>
+      </c>
+      <c r="C5">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>807</v>
+      </c>
+      <c r="B6">
+        <v>28000</v>
+      </c>
+      <c r="C6">
+        <v>69550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>807.8</v>
+      </c>
+      <c r="B7">
+        <v>37500</v>
+      </c>
+      <c r="C7">
+        <v>102300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCC6FE9-2CB5-4A40-B637-0994D25DE20F}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>32.9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>500</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>32000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>38000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>47000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>52000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>59000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>63000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>68000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>72000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <v>80000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>84000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23">
+        <v>92000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>101000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25">
+        <v>110000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11.737</v>
+      </c>
+      <c r="B26">
+        <v>118000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>580000</v>
       </c>
     </row>
   </sheetData>
